--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1730.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1730.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.4468951526516073</v>
+        <v>0.9633786082267761</v>
       </c>
       <c r="B1">
-        <v>0.9201280362748245</v>
+        <v>1.610763669013977</v>
       </c>
       <c r="C1">
         <v>-1</v>
       </c>
       <c r="D1">
-        <v>2.872398177735735</v>
+        <v>1.785297989845276</v>
       </c>
       <c r="E1">
-        <v>1.842367749659159</v>
+        <v>1.066914558410645</v>
       </c>
     </row>
   </sheetData>
